--- a/src/main/java/sql/APP路测系统数据表(统计分析).xlsx
+++ b/src/main/java/sql/APP路测系统数据表(统计分析).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_homepage_kpi" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="t_snack_product" sheetId="8" r:id="rId3"/>
     <sheet name="t_snack_product_classify" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="189">
   <si>
     <t>名称</t>
   </si>
@@ -670,14 +670,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>overdue_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>buy_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>modify_time</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -722,10 +714,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>produce_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>brand</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -746,10 +734,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>产品状态</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -763,14 +747,6 @@
   </si>
   <si>
     <t>0:下架,1:在售</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>过期日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -962,7 +938,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,9 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1443,7 +1416,7 @@
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1459,7 +1432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1552,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>50</v>
       </c>
@@ -1599,7 +1572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
@@ -1619,7 +1592,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>72</v>
       </c>
@@ -1639,7 +1612,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>112</v>
       </c>
@@ -1657,7 +1630,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>73</v>
       </c>
@@ -1675,7 +1648,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>113</v>
       </c>
@@ -1693,7 +1666,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>81</v>
       </c>
@@ -1711,7 +1684,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>114</v>
       </c>
@@ -1729,7 +1702,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>82</v>
       </c>
@@ -1747,7 +1720,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>115</v>
       </c>
@@ -1765,7 +1738,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>83</v>
       </c>
@@ -1783,7 +1756,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>116</v>
       </c>
@@ -1801,7 +1774,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>84</v>
       </c>
@@ -1819,7 +1792,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>117</v>
       </c>
@@ -1837,7 +1810,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
@@ -1857,7 +1830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>118</v>
       </c>
@@ -1875,7 +1848,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>92</v>
       </c>
@@ -1893,7 +1866,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>119</v>
       </c>
@@ -1911,7 +1884,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>93</v>
       </c>
@@ -1929,7 +1902,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>120</v>
       </c>
@@ -1947,7 +1920,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>94</v>
       </c>
@@ -1965,7 +1938,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>121</v>
       </c>
@@ -1983,7 +1956,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>95</v>
       </c>
@@ -2001,7 +1974,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>122</v>
       </c>
@@ -2019,7 +1992,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="10" t="s">
         <v>96</v>
       </c>
@@ -2037,7 +2010,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="10" t="s">
         <v>123</v>
       </c>
@@ -2055,7 +2028,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
@@ -2075,65 +2048,65 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>5</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16" t="s">
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:8" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>5</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="22" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:8" s="21" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>6</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="20" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2187,24 +2160,24 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="23" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2420,7 +2393,7 @@
       <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2436,7 +2409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>50</v>
       </c>
@@ -2456,7 +2429,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>51</v>
       </c>
@@ -2497,24 +2470,24 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>6</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2597,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2642,7 +2615,7 @@
         <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2651,22 +2624,22 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>156</v>
       </c>
@@ -2674,215 +2647,170 @@
         <v>160</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="B5" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" ht="18.75" customHeight="1">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="C10" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>175</v>
+      <c r="C11" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" s="30" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="C13" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" s="31" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="1" t="s">
+      <c r="C14" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2896,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2936,10 +2864,10 @@
         <v>137</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2948,30 +2876,30 @@
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2983,7 +2911,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/sql/APP路测系统数据表(统计分析).xlsx
+++ b/src/main/java/sql/APP路测系统数据表(统计分析).xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="rpt_homepage_kpi" sheetId="1" r:id="rId1"/>
     <sheet name="rpt_homepage_coverage" sheetId="4" r:id="rId2"/>
     <sheet name="t_snack_product" sheetId="8" r:id="rId3"/>
     <sheet name="t_snack_product_classify" sheetId="11" r:id="rId4"/>
+    <sheet name="t_snack_sale_info" sheetId="12" r:id="rId5"/>
+    <sheet name="t_snack_sale_log" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="215">
   <si>
     <t>名称</t>
   </si>
@@ -754,10 +756,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>产品表: t_snack_product_classify</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>type_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -771,6 +769,114 @@
   </si>
   <si>
     <t>number(2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品分类表: t_snack_product_classify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售记录表: t_snack_sale_log</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾客姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾客电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售记录表: t_snack_sale_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品进价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品售价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_tel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro_buy_price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro_sale_price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro_sale_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pro_sale_date</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +1044,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1136,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2572,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2626,7 +2735,7 @@
     </row>
     <row r="3" spans="1:7" s="25" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>159</v>
@@ -2659,7 +2768,7 @@
         <v>158</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>183</v>
@@ -2825,7 +2934,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C13" activeCellId="1" sqref="A5:XFD5 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2864,10 +2973,10 @@
         <v>137</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -2881,7 +2990,7 @@
         <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>166</v>
@@ -2896,7 +3005,7 @@
         <v>156</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>167</v>
@@ -2911,11 +3020,370 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>